--- a/biology/Zoologie/Gobie_soufre/Gobie_soufre.xlsx
+++ b/biology/Zoologie/Gobie_soufre/Gobie_soufre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocentrus cinctus
 Le Gobie soufre (Cryptocentrus cinctus), aussi appelé Gobie jaune est une espèce de gobies de la famille des Gobiidae, nommé ainsi pour sa couleur jaune vif.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gobie soufre mesure environ 6 cm, mais peut atteindre les 10 cm[1]. Il est de couleur jaune vif, tacheté de points bleus, mais peut aussi être assez gris puis devenir jaune avec le temps[2].
-Il n'y a pas de véritable dimorphisme sexuel apparent, mais la femelle est globalement plus grande que le mâle d'un à 2 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gobie soufre mesure environ 6 cm, mais peut atteindre les 10 cm. Il est de couleur jaune vif, tacheté de points bleus, mais peut aussi être assez gris puis devenir jaune avec le temps.
+Il n'y a pas de véritable dimorphisme sexuel apparent, mais la femelle est globalement plus grande que le mâle d'un à 2 cm.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Symbiose avec les crevettes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut observer chez cette espèce une symbiose avec les crevettes, notamment celles du genre Alpheus, et qui peut être reproduit en aquarium.
 			Gobie soufre aux côtés d'un spécimen de Alpheus bellulus
@@ -578,9 +594,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve dans le Pacifique ouest, du large du Japon (îles Yaeyama) jusqu'à Singapour et à la grande barrière de corail[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve dans le Pacifique ouest, du large du Japon (îles Yaeyama) jusqu'à Singapour et à la grande barrière de corail.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -640,9 +660,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ce taxon admet les synonymes suivants[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce taxon admet les synonymes suivants :
 Cryptocentrus flavus (non Yanagisawa, 1978)
 Smilogobius cinctus Herre, 1936</t>
         </is>
